--- a/5_Integración con datos de patógenos y enfermedades/Bacillus subtilis CW14 - Caco 2/Valor Padj menor a 0.05/genes_neurological_diseases.xlsx
+++ b/5_Integración con datos de patógenos y enfermedades/Bacillus subtilis CW14 - Caco 2/Valor Padj menor a 0.05/genes_neurological_diseases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a28782ebd37fa75/Documentos/Tesis de Grado/Protocolo/5_Integración con datos de patógenos y enfermedades/Bacillus subtilis CW14 - Caco 2/Valor Padj menor a 0.05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_175D21E89276BC0E62355476585DCE3A87478EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4849DD40-939D-4CE3-AB9A-4D8EA344B463}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_175D21E89276BC0E62355476585DCE3A87478EE2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0DF3419-FC5D-47B4-A901-379880308D72}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,10 +377,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -395,12 +409,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Estilo 1" xfId="1" xr:uid="{BBB3C9FE-016B-4821-A511-623C0C824610}"/>
+    <cellStyle name="Estilo 2" xfId="2" xr:uid="{61BCC6D6-F73A-430B-8434-72AE33126A53}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,7 +732,7 @@
     <col min="2" max="2" width="72.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -725,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
